--- a/数据整理/stocks/A股/上证主板/601989-中国重工.xlsx
+++ b/数据整理/stocks/A股/上证主板/601989-中国重工.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000596</t>
+          <t>512660</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源中证军工指数A</t>
+          <t>国泰中证军工ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.19</t>
+          <t>102.59</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.0885</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002199</t>
+          <t>161024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源中证军工指数C</t>
+          <t>富国中证军工指数</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.19</t>
+          <t>76.32</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.5947</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>502003</t>
+          <t>512680</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达军工指数（LOF）A</t>
+          <t>广发中证军工ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>24.70</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2177</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>12.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>93.48</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>4.62</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5960</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>4</v>
       </c>
     </row>
@@ -604,25 +654,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>161024</t>
+          <t>000596</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富国中证军工指数</t>
+          <t>前海开源中证军工指数A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.10</t>
+          <t>13.71</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5772</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>4</v>
       </c>
     </row>
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>501019</t>
+          <t>002199</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国泰国证航天军工指数（LOF）</t>
+          <t>前海开源中证军工指数C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>95.19</t>
+          <t>9.12</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3840</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>512560</t>
+          <t>501019</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>易方达中证军工ETF</t>
+          <t>国泰国证航天军工指数（LOF）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>99.03</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
+          <t>95.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2797</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -688,25 +768,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>512660</t>
+          <t>512560</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国泰中证军工ETF</t>
+          <t>易方达中证军工ETF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>99.40</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>4</v>
       </c>
     </row>
@@ -716,25 +806,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>512680</t>
+          <t>502003</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>广发中证军工ETF</t>
+          <t>易方达军工指数（LOF）A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>99.38</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>4</v>
       </c>
     </row>
@@ -754,15 +854,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>98.89</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>4.88</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>4</v>
       </c>
     </row>
@@ -777,7 +887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -798,15 +908,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -818,26 +938,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501019</t>
+          <t>512660</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国泰国证航天军工指数（LOF）</t>
+          <t>国泰中证军工ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.20</t>
+          <t>124.04</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.4052</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -846,26 +976,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>512560</t>
+          <t>161024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达中证军工ETF</t>
+          <t>富国中证军工指数</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>97.74</t>
+          <t>66.92</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.6940</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>512660</t>
+          <t>512680</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国泰中证军工ETF</t>
+          <t>广发中证军工ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>99.53</t>
+          <t>46.03</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.97</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7066</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>512680</t>
+          <t>163115</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发中证军工ETF</t>
+          <t>申万菱信中证军工指数A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>99.29</t>
+          <t>12.85</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.88</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7196</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>512810</t>
+          <t>501019</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华宝兴业中证军工ETF</t>
+          <t>国泰国证航天军工指数（LOF）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>98.68</t>
+          <t>11.67</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.83</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5473</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -968,15 +1138,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>94.41</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>5.62</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3557</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>2</v>
       </c>
     </row>
@@ -986,26 +1166,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>161024</t>
+          <t>512560</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>富国中证军工指数</t>
+          <t>易方达中证军工ETF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>92.42</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.52</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2560</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>163115</t>
+          <t>512810</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>申万菱信中证军工指数A</t>
+          <t>华宝兴业中证军工ETF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.85</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.60</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1288</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601989-中国重工.xlsx
+++ b/数据整理/stocks/A股/上证主板/601989-中国重工.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1239,4 +1240,552 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512660</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>131.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.4941</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证军工指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>74.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.5671</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512680</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>57.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.8083</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>163115</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6635</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501019</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5792</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>502003</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5784</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512560</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2483</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512810</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝兴业中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1198</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002018</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华弘安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001122</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华弘利灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>20.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002019</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华弘安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001123</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华弘利灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012842</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601989-中国重工.xlsx
+++ b/数据整理/stocks/A股/上证主板/601989-中国重工.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1788,4 +1789,440 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512660</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>142.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.9972</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证军工指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>64.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0021</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512680</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>40.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9853</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>163115</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5467</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501019</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4249</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>502003</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3930</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512560</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3217</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512810</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝兴业中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1307</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012842</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>320016</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺安多策略混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601989-中国重工.xlsx
+++ b/数据整理/stocks/A股/上证主板/601989-中国重工.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2225,4 +2226,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.82</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.81</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601989-中国重工.xlsx
+++ b/数据整理/stocks/A股/上证主板/601989-中国重工.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2234,7 +2235,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2245,17 +2246,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2265,14 +2286,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.82</v>
+          <t>512660</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>118.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.6164</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2281,14 +2324,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>15.16</v>
+          <t>161024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证军工指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>66.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4505</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2297,14 +2362,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>15.81</v>
+          <t>512680</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2506</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2313,13 +2400,341 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>163115</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4338</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501019</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4226</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>502003</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2599</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512560</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2342</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512810</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝兴业中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1436</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012842</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.82</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>10</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>11.97</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601989-中国重工.xlsx
+++ b/数据整理/stocks/A股/上证主板/601989-中国重工.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2633,7 +2634,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2644,17 +2645,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2664,14 +2685,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.83</v>
+          <t>512660</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>110.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.0658</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2680,14 +2723,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.82</v>
+          <t>161024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证军工指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>66.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8423</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2696,14 +2761,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>15.16</v>
+          <t>512680</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3976</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2712,14 +2799,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>15.81</v>
+          <t>163115</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4614</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -2728,13 +2837,357 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>501019</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4310</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>502003</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3037</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512560</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2609</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512810</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝兴业中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1768</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012842</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>090011</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成核心双动力混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.97</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.83</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.82</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>15.81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>10</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>11.97</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601989-中国重工.xlsx
+++ b/数据整理/stocks/A股/上证主板/601989-中国重工.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3070,7 +3071,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3081,17 +3082,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3101,14 +3122,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.97</v>
+          <t>512660</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>118.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.8282</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -3117,14 +3160,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.83</v>
+          <t>161024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证军工指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>55.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1571</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -3133,14 +3198,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.82</v>
+          <t>512680</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3243</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -3149,14 +3236,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>13</v>
-      </c>
-      <c r="D5" t="n">
-        <v>15.16</v>
+          <t>163115</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5238</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -3165,14 +3274,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>8</v>
-      </c>
-      <c r="D6" t="n">
-        <v>15.81</v>
+          <t>501019</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4264</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -3181,13 +3312,407 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>502003</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2999</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512560</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2673</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512810</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝兴业中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1907</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013035</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012842</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>016209</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>015599</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.97</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.83</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>13</v>
+      </c>
+      <c r="D6" t="n">
+        <v>15.16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>15.81</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>10</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>11.97</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601989-中国重工.xlsx
+++ b/数据整理/stocks/A股/上证主板/601989-中国重工.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>10.1</v>
+        <v>9.01</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>10.97</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>9.83</v>
+        <v>10.97</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>13.82</v>
+        <v>9.83</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>15.16</v>
+        <v>13.82</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D7" t="n">
-        <v>15.81</v>
+        <v>15.16</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>15.81</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>10</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>11.97</v>
       </c>
     </row>
@@ -666,22 +683,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>118.63</t>
+          <t>105.57</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.79</t>
+          <t>99.74</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.8282</t>
+          <t>4.2650</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -699,31 +716,31 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国中证军工指数</t>
+          <t>富国中证军工指数A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>55.74</t>
+          <t>51.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>93.67</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.1571</t>
+          <t>1.9482</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -742,26 +759,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>32.38</t>
+          <t>30.69</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>99.62</t>
+          <t>99.32</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.3243</t>
+          <t>1.2399</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -780,26 +797,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>13.64</t>
+          <t>11.85</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.64</t>
+          <t>93.33</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.5238</t>
+          <t>0.4515</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -813,31 +830,31 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国泰国证航天军工指数（LOF）</t>
+          <t>国泰国证航天军工指数（LOF）A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10.66</t>
+          <t>9.07</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.92</t>
+          <t>93.51</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.4264</t>
+          <t>0.3583</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -856,26 +873,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7.75</t>
+          <t>6.92</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.65</t>
+          <t>94.39</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2999</t>
+          <t>0.2664</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -894,26 +911,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6.60</t>
+          <t>5.97</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>99.02</t>
+          <t>98.91</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2673</t>
+          <t>0.2400</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -927,31 +944,31 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华宝兴业中证军工ETF</t>
+          <t>华宝中证军工ETF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>98.68</t>
+          <t>98.39</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1907</t>
+          <t>0.1568</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -970,26 +987,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>93.67</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0538</t>
+          <t>0.0443</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1008,26 +1025,26 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94.65</t>
+          <t>94.39</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0286</t>
+          <t>0.0400</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1036,34 +1053,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>016209</t>
+          <t>015599</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>申万菱信中证军工指数C</t>
+          <t>国泰国证航天军工指数（LOF）C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>93.64</t>
+          <t>93.51</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1072,34 +1091,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>015599</t>
+          <t>016209</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>国泰国证航天军工指数（LOF）C</t>
+          <t>申万菱信中证军工指数C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>93.92</t>
+          <t>93.33</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1108,6 +1129,514 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512660</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>118.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.8282</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证军工指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>55.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1571</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512680</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3243</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>163115</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5238</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501019</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4264</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>502003</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2999</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512560</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2673</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512810</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝兴业中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1907</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013035</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012842</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>016209</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>015599</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1543,7 +2072,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1941,7 +2470,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2377,7 +2906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2925,7 +3454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3285,7 +3814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601989-中国重工.xlsx
+++ b/数据整理/stocks/A股/上证主板/601989-中国重工.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>9.01</v>
+        <v>8.44</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>10.1</v>
+        <v>9.01</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>10.97</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>9.83</v>
+        <v>10.97</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>13.82</v>
+        <v>9.83</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>15.16</v>
+        <v>13.82</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D8" t="n">
-        <v>15.81</v>
+        <v>15.16</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,470 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>15.81</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>10</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>11.97</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512660</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>102.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.0885</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证军工指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>76.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.5947</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512680</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2177</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>163115</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5960</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000596</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5772</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002199</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3840</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501019</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2797</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512560</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>502003</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>512810</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝兴业中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -683,26 +1136,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>105.57</t>
+          <t>104.53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.74</t>
+          <t>99.72</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.2650</t>
+          <t>4.0035</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -721,22 +1174,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>51.00</t>
+          <t>50.37</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.67</t>
+          <t>94.33</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.9482</t>
+          <t>1.8032</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -759,22 +1212,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>30.69</t>
+          <t>32.36</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>99.32</t>
+          <t>99.61</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.2399</t>
+          <t>1.2264</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -787,32 +1240,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>163115</t>
+          <t>501019</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>申万菱信中证军工指数A</t>
+          <t>国泰国证航天军工指数（LOF）A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11.85</t>
+          <t>8.90</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.33</t>
+          <t>92.23</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.4515</t>
+          <t>0.3435</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -825,36 +1278,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>501019</t>
+          <t>163115</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国泰国证航天军工指数（LOF）A</t>
+          <t>申万菱信中证军工指数A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9.07</t>
+          <t>8.35</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.51</t>
+          <t>93.84</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3583</t>
+          <t>0.2964</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -863,32 +1316,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>502003</t>
+          <t>512560</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>易方达军工指数（LOF）A</t>
+          <t>易方达中证军工ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6.92</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.39</t>
+          <t>99.17</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2664</t>
+          <t>0.2457</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -901,32 +1354,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>512560</t>
+          <t>502003</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>易方达中证军工ETF</t>
+          <t>易方达军工指数（LOF）A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5.97</t>
+          <t>6.64</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>98.91</t>
+          <t>94.73</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2400</t>
+          <t>0.2397</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -949,22 +1402,22 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>98.39</t>
+          <t>98.53</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1568</t>
+          <t>0.1736</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -977,32 +1430,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>013035</t>
+          <t>012842</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>富国中证军工指数C</t>
+          <t>易方达军工指数（LOF）C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.67</t>
+          <t>94.73</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0443</t>
+          <t>0.0491</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1015,32 +1468,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>012842</t>
+          <t>013035</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>易方达军工指数（LOF）C</t>
+          <t>富国中证军工指数C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94.39</t>
+          <t>94.33</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0400</t>
+          <t>0.0476</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1063,26 +1516,26 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>93.51</t>
+          <t>92.23</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0012</t>
+          <t>0.0073</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1101,22 +1554,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>93.33</t>
+          <t>93.84</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0004</t>
+          <t>0.0014</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1195,22 +1648,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>118.63</t>
+          <t>105.57</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.79</t>
+          <t>99.74</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.8282</t>
+          <t>4.2650</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1228,31 +1681,31 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国中证军工指数</t>
+          <t>富国中证军工指数A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>55.74</t>
+          <t>51.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>93.67</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.1571</t>
+          <t>1.9482</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1271,26 +1724,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>32.38</t>
+          <t>30.69</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>99.62</t>
+          <t>99.32</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.3243</t>
+          <t>1.2399</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1309,26 +1762,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>13.64</t>
+          <t>11.85</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.64</t>
+          <t>93.33</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.5238</t>
+          <t>0.4515</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1342,31 +1795,31 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国泰国证航天军工指数（LOF）</t>
+          <t>国泰国证航天军工指数（LOF）A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10.66</t>
+          <t>9.07</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.92</t>
+          <t>93.51</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.4264</t>
+          <t>0.3583</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1385,26 +1838,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7.75</t>
+          <t>6.92</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.65</t>
+          <t>94.39</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2999</t>
+          <t>0.2664</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1423,26 +1876,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6.60</t>
+          <t>5.97</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>99.02</t>
+          <t>98.91</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2673</t>
+          <t>0.2400</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1456,31 +1909,31 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华宝兴业中证军工ETF</t>
+          <t>华宝中证军工ETF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>98.68</t>
+          <t>98.39</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1907</t>
+          <t>0.1568</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1499,26 +1952,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>93.67</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0538</t>
+          <t>0.0443</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1537,26 +1990,26 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94.65</t>
+          <t>94.39</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0286</t>
+          <t>0.0400</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1565,34 +2018,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>016209</t>
+          <t>015599</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>申万菱信中证军工指数C</t>
+          <t>国泰国证航天军工指数（LOF）C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>93.64</t>
+          <t>93.51</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1601,34 +2056,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>015599</t>
+          <t>016209</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>国泰国证航天军工指数（LOF）C</t>
+          <t>申万菱信中证军工指数C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>93.92</t>
+          <t>93.33</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1637,6 +2094,514 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512660</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>118.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.8282</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证军工指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>55.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1571</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512680</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3243</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>163115</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5238</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501019</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4264</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>502003</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2999</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512560</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2673</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512810</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝兴业中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1907</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013035</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012842</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>016209</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>015599</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2072,7 +3037,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2470,7 +3435,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2906,7 +3871,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3454,7 +4419,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3812,440 +4777,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>512660</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰中证军工ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>102.59</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.40</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>5.0885</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>161024</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富国中证军工指数</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>76.32</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.10</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>3.5947</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>512680</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发中证军工ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>24.70</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>99.38</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.2177</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>163115</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>申万菱信中证军工指数A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.48</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.5960</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000596</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>前海开源中证军工指数A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>13.71</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.19</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.5772</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002199</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>前海开源中证军工指数C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>9.12</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.19</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.3840</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>501019</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国泰国证航天军工指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>7.01</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>95.19</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2797</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>512560</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>易方达中证军工ETF</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>99.03</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0838</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>502003</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>易方达军工指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0835</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>512810</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华宝兴业中证军工ETF</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>98.89</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.88</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0654</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>